--- a/xlsx/希腊语_intext.xlsx
+++ b/xlsx/希腊语_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="529">
   <si>
     <t>希腊语</t>
   </si>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>希臘語族</t>
+    <t>希腊语族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%97</t>
@@ -71,19 +71,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>官方語言列表</t>
+    <t>官方语言列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_639-1</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80%E7%9E%AD%E6%9C%9B%E7%AB%99</t>
   </si>
   <si>
-    <t>语言瞭望站</t>
+    <t>语言了望站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E9%9F%B3%E6%A0%87</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E6%AD%90%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>印歐語系</t>
+    <t>印欧语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80</t>
@@ -215,27 +215,24 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>古希臘語</t>
+    <t>古希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%A5%A7%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>愛奧尼亞</t>
+    <t>爱奥尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%AA%9E%E6%AD%A3%E5%AF%AB%E6%B3%95</t>
   </si>
   <si>
-    <t>希臘語正寫法</t>
+    <t>希腊语正写法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>希臘字母</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%85%E9%9F%B3</t>
   </si>
   <si>
@@ -245,9 +242,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9F%B3%E6%A8%99</t>
   </si>
   <si>
-    <t>國際音標</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%CE%91</t>
   </si>
   <si>
@@ -401,13 +395,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>後元音</t>
+    <t>后元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%89%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>閉元音</t>
+    <t>闭元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%83%E9%9F%B3</t>
@@ -419,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>開元音</t>
+    <t>开元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%87%E9%9F%B3</t>
@@ -431,13 +425,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BD%92%E9%9F%B3</t>
   </si>
   <si>
-    <t>齒音</t>
+    <t>齿音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BD%92%E9%BD%A6%E9%9F%B3</t>
   </si>
   <si>
-    <t>齒齦音</t>
+    <t>齿龈音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AC%E8%85%AD%E9%9F%B3</t>
@@ -449,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%BD%B6%E9%9F%B3</t>
   </si>
   <si>
-    <t>軟齶音</t>
+    <t>软腭音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BC%BB%E9%9F%B3</t>
@@ -479,13 +473,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>閃音</t>
+    <t>闪音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%8A%E9%9F%B3</t>
   </si>
   <si>
-    <t>邊音</t>
+    <t>边音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%B3%95</t>
@@ -497,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8D%E8%A9%9E</t>
   </si>
   <si>
-    <t>名詞</t>
+    <t>名词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC_(%E8%AF%AD%E6%B3%95)</t>
@@ -521,13 +515,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%87%E6%A0%BC</t>
   </si>
   <si>
-    <t>與格</t>
+    <t>与格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E6%A0%BC</t>
   </si>
   <si>
-    <t>賓格</t>
+    <t>宾格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%BC%E6%A0%BC</t>
@@ -557,67 +551,67 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E5%9C%A8%E6%99%82</t>
   </si>
   <si>
-    <t>現在時</t>
+    <t>现在时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%87%E4%BE%86%E6%99%82</t>
   </si>
   <si>
-    <t>將來時</t>
+    <t>将来时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E5%AE%8C%E6%88%90%E6%99%82</t>
   </si>
   <si>
-    <t>未完成時</t>
+    <t>未完成时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B0%A1%E5%96%AE%E9%81%8E%E5%8E%BB%E6%99%82</t>
   </si>
   <si>
-    <t>簡單過去時</t>
+    <t>简单过去时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8C%E6%88%90%E6%99%82</t>
   </si>
   <si>
-    <t>完成時</t>
+    <t>完成时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8E%E5%8E%BB%E5%AE%8C%E6%88%90%E6%99%82</t>
   </si>
   <si>
-    <t>過去完成時</t>
+    <t>过去完成时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>原始希臘語</t>
+    <t>原始希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%8C%AB%E5%B0%BC%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>邁錫尼希臘語</t>
+    <t>迈锡尼希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>古典希臘語</t>
+    <t>古典希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8F%90%E5%8D%A1%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿提卡希臘語</t>
+    <t>阿提卡希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>通用希臘語</t>
+    <t>通用希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8F%A4%E5%B8%8C%E8%85%8A%E8%AF%AD</t>
@@ -629,43 +623,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%81%E7%8B%84%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>旁狄希臘語</t>
+    <t>旁狄希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>意大利語</t>
+    <t>意大利语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%A7%86%E8%AA%9E</t>
   </si>
   <si>
-    <t>羅姆語</t>
+    <t>罗姆语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%AA%9E%E9%9F%B3%E7%B3%BB</t>
   </si>
   <si>
-    <t>古希臘語音系</t>
+    <t>古希腊语音系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%AA%9E%E8%AA%9E%E6%B3%95</t>
   </si>
   <si>
-    <t>古希臘語語法</t>
+    <t>古希腊语语法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%AA%9E%E8%AA%9E%E6%B3%95_(%E8%A1%A8%E6%A0%BC)</t>
   </si>
   <si>
-    <t>古希臘語語法 (表格)</t>
+    <t>古希腊语语法 (表格)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%AA%9E%E8%AE%8A%E9%9F%B3%E7%AC%A6%E8%99%9F</t>
   </si>
   <si>
-    <t>希臘語變音符號</t>
+    <t>希腊语变音符号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Nationalencyklopedin</t>
@@ -707,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>維基百科</t>
+    <t>维基百科</t>
   </si>
   <si>
     <t>https://el.wikipedia.org/wiki/</t>
@@ -725,19 +719,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
   </si>
   <si>
-    <t>希腊</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E4%BA%BA</t>
   </si>
   <si>
-    <t>希臘人</t>
+    <t>希腊人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E4%BA%BA%E5%88%97%E8%A1%A8</t>
@@ -773,19 +764,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E9%A2%A8%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>古風時期</t>
+    <t>古风时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E5%B8%8C%E8%87%98%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>古典希臘時期</t>
+    <t>古典希腊时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E5%8C%96%E6%99%82%E4%BB%A3%E7%9A%84%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘化時代的希臘</t>
+    <t>希腊化时代的希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E7%8B%AC%E7%AB%8B%E6%88%98%E4%BA%89</t>
@@ -797,7 +788,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E4%BB%A3%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>近代希臘</t>
+    <t>近代希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E5%86%85%E6%88%98</t>
@@ -851,7 +842,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E6%94%BF%E9%BB%A8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>希臘政黨列表</t>
+    <t>希腊政党列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E9%97%AE%E9%A2%98</t>
@@ -863,7 +854,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%EF%BC%8D%E5%9C%9F%E8%80%B3%E5%85%B6%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>希臘－土耳其關係</t>
+    <t>希腊－土耳其关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%B6%E9%A1%BF%E5%90%8D%E7%A7%B0%E4%BA%89%E8%AE%AE</t>
@@ -875,13 +866,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E5%9C%B0%E7%90%86</t>
   </si>
   <si>
-    <t>希臘地理</t>
+    <t>希腊地理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>希臘地區</t>
+    <t>希腊地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -911,7 +902,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>希臘經濟</t>
+    <t>希腊经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E5%86%9C%E4%B8%9A</t>
@@ -929,7 +920,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E5%9C%8B%E5%82%B5%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>希臘國債危機</t>
+    <t>希腊国债危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E8%82%A1%E7%A5%A8%E4%BA%A4%E6%98%93%E6%89%80</t>
@@ -941,7 +932,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E7%9A%84%E6%AD%90%E5%85%83%E7%A1%AC%E5%B9%A3</t>
   </si>
   <si>
-    <t>希臘的歐元硬幣</t>
+    <t>希腊的欧元硬币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E9%93%B6%E8%A1%8C</t>
@@ -1007,7 +998,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>希臘文化</t>
+    <t>希腊文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E6%96%87%E5%AD%A6</t>
@@ -1025,7 +1016,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E9%AB%94%E8%82%B2</t>
   </si>
   <si>
-    <t>希臘體育</t>
+    <t>希腊体育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E5%9B%BD%E5%BE%BD</t>
@@ -1049,19 +1040,16 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E6%AD%90%E7%9B%9F%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>Template talk-歐盟官方語言</t>
+    <t>Template talk-欧盟官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐洲聯盟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%81%AF%E7%9B%9F%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>歐洲聯盟語言</t>
+    <t>欧洲联盟语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A%E8%AF%AD</t>
@@ -1085,7 +1073,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E8%AA%9E</t>
   </si>
   <si>
-    <t>荷蘭語</t>
+    <t>荷兰语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
@@ -1127,15 +1115,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E8%AA%9E</t>
   </si>
   <si>
-    <t>愛爾蘭語</t>
+    <t>爱尔兰语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AF%AD</t>
   </si>
   <si>
-    <t>意大利语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%B1%E7%BB%B4%E4%BA%9A%E8%AF%AD</t>
   </si>
   <si>
@@ -1163,13 +1148,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>葡萄牙語</t>
+    <t>葡萄牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞語</t>
+    <t>罗马尼亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E8%AF%AD</t>
@@ -1193,27 +1178,21 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E8%AA%9E</t>
   </si>
   <si>
-    <t>瑞典語</t>
+    <t>瑞典语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>克羅埃西亞語</t>
+    <t>克罗埃西亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E9%94%A1%E5%B0%BC%E5%B8%8C%E8%85%8A%E8%AF%AD</t>
   </si>
   <si>
-    <t>迈锡尼希腊语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E5%B8%8C%E8%85%8A%E8%AF%AD</t>
   </si>
   <si>
-    <t>通用希腊语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E9%9D%9E%E8%AF%AD%E7%B3%BB</t>
   </si>
   <si>
@@ -1247,7 +1226,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%B8%8C%E7%89%B9%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>庫希特語族</t>
+    <t>库希特语族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%91%A9%E8%AF%AD%E6%97%8F</t>
@@ -1271,7 +1250,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%BE%B7%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>曼德語族</t>
+    <t>曼德语族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%B0%94%E5%A4%9A%E5%87%A1%E8%AF%AD%E6%97%8F</t>
@@ -1295,13 +1274,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E6%AC%A7%E8%AF%AD%E7%B3%BB</t>
   </si>
   <si>
-    <t>印欧语系</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E6%89%98%E5%88%A9%E4%BA%9E%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>安那托利亞語族</t>
+    <t>安那托利亚语族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%EF%BC%8D%E4%BC%8A%E6%9C%97%E8%AF%AD%E6%97%8F</t>
@@ -1331,7 +1307,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%9B%BC%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>羅曼語族</t>
+    <t>罗曼语族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%80%B3%E6%9B%BC%E8%AF%AD%E6%97%8F</t>
@@ -1373,19 +1349,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>蒙古語族</t>
+    <t>蒙古语族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E5%8F%A4%E6%96%AF%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>通古斯語族</t>
+    <t>通古斯语族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%8E%A5%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>突厥語族</t>
+    <t>突厥语族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%97%8F%E8%AF%AD%E7%B3%BB</t>
@@ -1403,13 +1379,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E7%B7%AC%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>藏緬語族</t>
+    <t>藏缅语族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%B3%B6%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>南島語系</t>
+    <t>南岛语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%EF%BC%8D%E6%B3%A2%E5%88%A9%E5%B0%BC%E8%A5%BF%E4%BA%9A%E8%AF%AD%E6%97%8F</t>
@@ -1421,7 +1397,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%8D%97%E5%B3%B6%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>台灣南島語言</t>
+    <t>台湾南岛语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%9A%E8%AF%AD%E7%B3%BB</t>
@@ -1463,7 +1439,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%B6%E4%BD%99%E8%AF%AD%E7%B3%BB</t>
   </si>
   <si>
-    <t>扶余语系</t>
+    <t>扶馀语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%EF%BC%8D%E7%90%89%E7%90%83%E8%AF%AD%E7%B3%BB</t>
@@ -1487,7 +1463,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A3%AF%E4%BE%97%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>壯侗語族</t>
+    <t>壮侗语族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%97%E7%91%B6%E8%AF%AD%E6%97%8F</t>
@@ -1511,31 +1487,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%EF%BC%8D%E5%BE%B7%E5%85%A7%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>納－德內語系</t>
+    <t>纳－德内语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%88%A9%E5%B8%8C%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>薩利希語系</t>
+    <t>萨利希语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%EF%BC%8D%E9%98%BF%E8%8C%B2%E7%89%B9%E5%85%8B%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>猶他－阿茲特克語系</t>
+    <t>犹他－阿兹特克语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%9B%85%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>馬雅語系</t>
+    <t>马雅语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%89%98-%E6%9B%BC%E6%A0%BC%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>歐托-曼格語系</t>
+    <t>欧托-曼格语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E7%93%A6%E5%85%8B%E8%AF%AD%E7%B3%BB</t>
@@ -1547,13 +1523,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E4%B8%98%E4%BA%9E%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>克丘亞語系</t>
+    <t>克丘亚语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E5%8D%A1%E8%AB%BE%E5%AE%89%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>圖卡諾安語系</t>
+    <t>图卡诺安语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E7%9A%AE%E8%AF%AD%E7%B3%BB</t>
@@ -1571,7 +1547,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9E%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>古西伯利亞語言</t>
+    <t>古西伯利亚语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%9A%E7%A7%91%E5%A5%87%EF%BC%8D%E5%A0%AA%E5%AF%9F%E5%8A%A0%E8%AF%AD%E7%B3%BB</t>
@@ -1583,7 +1559,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%A4%AB%E8%B5%AB%E8%AA%9E</t>
   </si>
   <si>
-    <t>尼夫赫語</t>
+    <t>尼夫赫语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%8D%A1%E5%90%89%E5%B0%94%E8%AF%AD%E7%B3%BB</t>
@@ -1607,19 +1583,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%87%8C%E5%88%87%E5%88%A9%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>托里切利語族</t>
+    <t>托里切利语族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -3011,7 +2987,7 @@
         <v>71</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -3037,10 +3013,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3066,10 +3042,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3095,10 +3071,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>4</v>
@@ -3124,10 +3100,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -3153,10 +3129,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3182,10 +3158,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>3</v>
@@ -3211,10 +3187,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>7</v>
@@ -3240,10 +3216,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3269,10 +3245,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3298,10 +3274,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3327,10 +3303,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -3356,10 +3332,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>7</v>
@@ -3385,10 +3361,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3414,10 +3390,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>3</v>
@@ -3443,10 +3419,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -3472,10 +3448,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3501,10 +3477,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3530,10 +3506,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -3559,10 +3535,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -3588,10 +3564,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3617,10 +3593,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -3646,10 +3622,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3675,10 +3651,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3704,10 +3680,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3733,10 +3709,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3762,10 +3738,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3791,10 +3767,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>12</v>
@@ -3820,10 +3796,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3849,10 +3825,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3878,10 +3854,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>16</v>
@@ -3907,10 +3883,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3936,10 +3912,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3965,10 +3941,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3994,10 +3970,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4023,10 +3999,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4052,10 +4028,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4081,10 +4057,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4110,10 +4086,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4139,10 +4115,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -4168,10 +4144,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4197,10 +4173,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4226,10 +4202,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4255,10 +4231,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -4284,10 +4260,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>5</v>
@@ -4313,10 +4289,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>14</v>
@@ -4342,10 +4318,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -4371,10 +4347,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4400,10 +4376,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4429,10 +4405,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -4458,10 +4434,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -4487,10 +4463,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>7</v>
@@ -4516,10 +4492,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>6</v>
@@ -4545,10 +4521,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>3</v>
@@ -4574,10 +4550,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4603,10 +4579,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4632,10 +4608,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>3</v>
@@ -4661,10 +4637,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -4690,10 +4666,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>9</v>
@@ -4719,10 +4695,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>3</v>
@@ -4748,10 +4724,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4777,10 +4753,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4806,10 +4782,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>9</v>
@@ -4835,10 +4811,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4864,10 +4840,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4893,10 +4869,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4922,10 +4898,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4951,10 +4927,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4980,10 +4956,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5009,10 +4985,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5038,10 +5014,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -5067,10 +5043,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5096,10 +5072,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F108" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5125,10 +5101,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F109" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5154,10 +5130,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F110" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5183,10 +5159,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F111" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5241,10 +5217,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5270,10 +5246,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5299,10 +5275,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5328,10 +5304,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5357,10 +5333,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5386,10 +5362,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -5415,10 +5391,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5444,10 +5420,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>20</v>
       </c>
       <c r="G120" t="n">
         <v>59</v>
@@ -5473,10 +5449,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5502,10 +5478,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5531,10 +5507,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -5560,10 +5536,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5589,10 +5565,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5618,10 +5594,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5647,10 +5623,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5676,10 +5652,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5705,10 +5681,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5734,10 +5710,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5763,10 +5739,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -5792,10 +5768,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5821,10 +5797,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5850,10 +5826,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5879,13 +5855,13 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
@@ -5908,10 +5884,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5937,10 +5913,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5966,10 +5942,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5995,10 +5971,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6024,10 +6000,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6053,10 +6029,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6082,10 +6058,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6111,10 +6087,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6140,10 +6116,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6169,10 +6145,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G145" t="n">
         <v>4</v>
@@ -6198,10 +6174,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6227,10 +6203,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G147" t="n">
         <v>4</v>
@@ -6256,10 +6232,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6285,10 +6261,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6314,10 +6290,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G150" t="n">
         <v>3</v>
@@ -6343,10 +6319,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6372,10 +6348,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6401,10 +6377,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6430,10 +6406,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6459,10 +6435,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6488,10 +6464,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6517,10 +6493,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -6546,10 +6522,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6575,10 +6551,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F159" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6604,10 +6580,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F160" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6633,10 +6609,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6662,10 +6638,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6691,10 +6667,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F163" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -6720,10 +6696,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F164" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6749,10 +6725,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F165" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -6778,10 +6754,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F166" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6807,10 +6783,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F167" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6836,10 +6812,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F168" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6865,10 +6841,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F169" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6894,10 +6870,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F170" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6923,10 +6899,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F171" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6952,10 +6928,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F172" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6981,10 +6957,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F173" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G173" t="n">
         <v>6</v>
@@ -7010,10 +6986,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F174" t="s">
-        <v>346</v>
+        <v>24</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7039,10 +7015,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F175" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7068,10 +7044,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F176" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7097,10 +7073,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F177" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7126,10 +7102,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F178" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7155,10 +7131,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F179" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7184,10 +7160,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F180" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7213,10 +7189,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F181" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7242,10 +7218,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F182" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7271,10 +7247,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F183" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7300,10 +7276,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F184" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -7329,10 +7305,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F185" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7358,10 +7334,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F186" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7387,10 +7363,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F187" t="s">
-        <v>372</v>
+        <v>204</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -7416,10 +7392,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F188" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7445,10 +7421,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F189" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7474,10 +7450,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F190" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7503,10 +7479,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F191" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7532,10 +7508,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F192" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7561,10 +7537,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F193" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7590,10 +7566,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F194" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7619,10 +7595,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F195" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7648,10 +7624,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F196" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7677,10 +7653,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F197" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7706,10 +7682,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F198" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7735,10 +7711,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F199" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7764,10 +7740,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F200" t="s">
-        <v>396</v>
+        <v>192</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -7793,10 +7769,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F201" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7822,10 +7798,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F202" t="s">
-        <v>398</v>
+        <v>198</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7851,10 +7827,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F203" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7909,10 +7885,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F205" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7938,10 +7914,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F206" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7967,10 +7943,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7996,10 +7972,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F208" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8025,10 +8001,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F209" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8054,10 +8030,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F210" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8083,10 +8059,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F211" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8112,10 +8088,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F212" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8141,10 +8117,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F213" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8170,10 +8146,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F214" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8199,10 +8175,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F215" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8228,10 +8204,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F216" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8257,10 +8233,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F217" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8286,10 +8262,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F218" t="s">
-        <v>426</v>
+        <v>56</v>
       </c>
       <c r="G218" t="n">
         <v>4</v>
@@ -8315,10 +8291,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F219" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8344,10 +8320,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F220" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8373,10 +8349,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F221" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8402,10 +8378,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F222" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G222" t="n">
         <v>3</v>
@@ -8431,10 +8407,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F223" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8460,10 +8436,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F224" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8489,10 +8465,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F225" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8518,10 +8494,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F226" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8547,10 +8523,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F227" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8576,10 +8552,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F228" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8605,10 +8581,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F229" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8634,10 +8610,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F230" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8663,10 +8639,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F231" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8692,10 +8668,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F232" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8721,10 +8697,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F233" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8750,10 +8726,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F234" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8779,10 +8755,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F235" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8808,10 +8784,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F236" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8837,10 +8813,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F237" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8866,10 +8842,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F238" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8895,10 +8871,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F239" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8924,10 +8900,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F240" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8953,10 +8929,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F241" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8982,10 +8958,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F242" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9011,10 +8987,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F243" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9040,10 +9016,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F244" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9069,10 +9045,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F245" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9098,10 +9074,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F246" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9127,10 +9103,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F247" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9156,10 +9132,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F248" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9185,10 +9161,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F249" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9214,10 +9190,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F250" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9243,10 +9219,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F251" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9272,10 +9248,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F252" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -9301,10 +9277,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F253" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9330,10 +9306,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F254" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9359,10 +9335,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="F255" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9388,10 +9364,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F256" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9417,10 +9393,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F257" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9446,10 +9422,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F258" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9475,10 +9451,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F259" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9504,10 +9480,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="F260" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9533,10 +9509,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F261" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9562,10 +9538,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F262" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9591,10 +9567,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F263" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9620,10 +9596,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F264" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9649,10 +9625,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F265" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9678,10 +9654,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F266" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9707,10 +9683,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F267" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9736,10 +9712,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F268" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9765,10 +9741,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F269" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9794,10 +9770,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F270" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9823,10 +9799,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F271" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -9852,10 +9828,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F272" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -9881,10 +9857,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F273" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -9910,10 +9886,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F274" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -9939,10 +9915,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F275" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -9968,10 +9944,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F276" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -9997,10 +9973,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F277" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>

--- a/xlsx/希腊语_intext.xlsx
+++ b/xlsx/希腊语_intext.xlsx
@@ -29,7 +29,7 @@
     <t>地中海</t>
   </si>
   <si>
-    <t>政策_政策_政治_希腊语</t>
+    <t>体育运动_体育运动_奥林匹克运动会_希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E8%AF%AD</t>
